--- a/InputGraphsSRB.xlsx
+++ b/InputGraphsSRB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/jubica_jubica_ugent_be/Documents/Desktop/flx_lsms_hydrogen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhruv\Documents\Jubica_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC10483921186D065BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E19C2B11-4ABB-49C6-B19E-12BF74AF6F6A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD51F16C-B7BB-4999-8BA8-687317A27C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,12 +524,12 @@
   <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -705,7 +705,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>43</v>
       </c>
@@ -719,7 +719,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -860,7 +860,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
